--- a/data/historico.xlsx
+++ b/data/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beca\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8848032-84C3-4B9A-ABF0-D471ECA0FE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA5697-6ACF-4627-8E81-568FEBBD8EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +835,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1181,8 +1187,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1504,15 +1511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA8399D-72DE-458E-8C66-232033E510E7}">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -1526,7 +1533,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1539,8 +1546,9 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1553,8 +1561,9 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1567,8 +1576,9 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1591,9 @@
       <c r="D5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1595,8 +1606,9 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +1621,9 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1623,8 +1636,9 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1637,8 +1651,9 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1651,8 +1666,9 @@
       <c r="D10">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1665,8 +1681,9 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1679,8 +1696,9 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1693,8 +1711,9 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1707,8 +1726,9 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1721,8 +1741,9 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1735,8 +1756,9 @@
       <c r="D16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1749,8 +1771,9 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1763,8 +1786,9 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1777,8 +1801,9 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1791,8 +1816,9 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1805,8 +1831,9 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1819,8 +1846,9 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1833,8 +1861,9 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1847,8 +1876,9 @@
       <c r="D24">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1861,8 +1891,9 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1875,8 +1906,9 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1889,8 +1921,9 @@
       <c r="D27">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1903,8 +1936,9 @@
       <c r="D28">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1917,8 +1951,9 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1931,8 +1966,9 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1945,8 +1981,9 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1959,8 +1996,9 @@
       <c r="D32">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1973,8 +2011,9 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1987,8 +2026,9 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2001,8 +2041,9 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2015,8 +2056,9 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2029,8 +2071,9 @@
       <c r="D37">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2043,8 +2086,9 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2057,8 +2101,9 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2071,8 +2116,9 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2085,8 +2131,9 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2099,8 +2146,9 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2113,8 +2161,9 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2127,8 +2176,9 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2141,8 +2191,9 @@
       <c r="D45">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2155,8 +2206,9 @@
       <c r="D46">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2169,8 +2221,9 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2183,8 +2236,9 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2197,8 +2251,9 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2266,9 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2225,8 +2281,9 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2239,8 +2296,9 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2253,8 +2311,9 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2267,8 +2326,9 @@
       <c r="D54">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2281,8 +2341,9 @@
       <c r="D55">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2295,8 +2356,9 @@
       <c r="D56">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2309,8 +2371,9 @@
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2323,8 +2386,9 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2337,8 +2401,9 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2351,8 +2416,9 @@
       <c r="D60">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2365,8 +2431,9 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2379,8 +2446,9 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2393,8 +2461,9 @@
       <c r="D63">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2407,8 +2476,9 @@
       <c r="D64">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2421,8 +2491,9 @@
       <c r="D65">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2435,8 +2506,9 @@
       <c r="D66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2449,8 +2521,9 @@
       <c r="D67">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2463,8 +2536,9 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2477,8 +2551,9 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2491,8 +2566,9 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2505,8 +2581,9 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2519,8 +2596,9 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2533,8 +2611,9 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2547,8 +2626,9 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2561,8 +2641,9 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2575,8 +2656,9 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2589,8 +2671,9 @@
       <c r="D77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2603,8 +2686,9 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2617,8 +2701,9 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2631,8 +2716,9 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2645,8 +2731,9 @@
       <c r="D81">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2659,8 +2746,9 @@
       <c r="D82">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2673,8 +2761,9 @@
       <c r="D83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2687,8 +2776,9 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2701,8 +2791,9 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2715,8 +2806,9 @@
       <c r="D86">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2729,8 +2821,9 @@
       <c r="D87">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2743,8 +2836,9 @@
       <c r="D88">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2757,8 +2851,9 @@
       <c r="D89">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2771,8 +2866,9 @@
       <c r="D90">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2785,8 +2881,9 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2799,8 +2896,9 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2813,8 +2911,9 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2827,8 +2926,9 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2841,8 +2941,9 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2855,8 +2956,9 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2869,8 +2971,9 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2883,8 +2986,9 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2897,8 +3001,9 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2911,8 +3016,9 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2925,8 +3031,9 @@
       <c r="D101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2939,8 +3046,9 @@
       <c r="D102">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2953,8 +3061,9 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2967,8 +3076,9 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2981,8 +3091,9 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2995,8 +3106,9 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3009,8 +3121,9 @@
       <c r="D107">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3023,8 +3136,9 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3037,8 +3151,9 @@
       <c r="D109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3051,8 +3166,9 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3065,8 +3181,9 @@
       <c r="D111">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3079,8 +3196,9 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3093,8 +3211,9 @@
       <c r="D113">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3107,8 +3226,9 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3121,8 +3241,9 @@
       <c r="D115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3135,8 +3256,9 @@
       <c r="D116">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3149,8 +3271,9 @@
       <c r="D117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3163,8 +3286,9 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3177,8 +3301,9 @@
       <c r="D119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3191,8 +3316,9 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3205,8 +3331,9 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3219,8 +3346,9 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3233,8 +3361,9 @@
       <c r="D123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="D124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3261,8 +3391,9 @@
       <c r="D125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3275,8 +3406,9 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3289,8 +3421,9 @@
       <c r="D127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3303,8 +3436,9 @@
       <c r="D128">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3317,8 +3451,9 @@
       <c r="D129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3331,8 +3466,9 @@
       <c r="D130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3345,8 +3481,9 @@
       <c r="D131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3359,8 +3496,9 @@
       <c r="D132">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3373,8 +3511,9 @@
       <c r="D133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3387,8 +3526,9 @@
       <c r="D134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3401,8 +3541,9 @@
       <c r="D135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3415,8 +3556,9 @@
       <c r="D136">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3429,8 +3571,9 @@
       <c r="D137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3443,8 +3586,9 @@
       <c r="D138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3457,8 +3601,9 @@
       <c r="D139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3471,8 +3616,9 @@
       <c r="D140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3485,8 +3631,9 @@
       <c r="D141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3499,8 +3646,9 @@
       <c r="D142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3513,8 +3661,9 @@
       <c r="D143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3527,8 +3676,9 @@
       <c r="D144">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3541,8 +3691,9 @@
       <c r="D145">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3555,8 +3706,9 @@
       <c r="D146">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3569,8 +3721,9 @@
       <c r="D147">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3583,8 +3736,9 @@
       <c r="D148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3597,8 +3751,9 @@
       <c r="D149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3611,8 +3766,9 @@
       <c r="D150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3625,8 +3781,9 @@
       <c r="D151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -3639,8 +3796,9 @@
       <c r="D152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3653,8 +3811,9 @@
       <c r="D153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -3667,8 +3826,9 @@
       <c r="D154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -3681,8 +3841,9 @@
       <c r="D155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -3695,8 +3856,9 @@
       <c r="D156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -3709,8 +3871,9 @@
       <c r="D157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -3723,8 +3886,9 @@
       <c r="D158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -3737,8 +3901,9 @@
       <c r="D159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -3751,8 +3916,9 @@
       <c r="D160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -3765,8 +3931,9 @@
       <c r="D161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -3779,8 +3946,9 @@
       <c r="D162">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -3793,8 +3961,9 @@
       <c r="D163">
         <v>31</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -3807,8 +3976,9 @@
       <c r="D164">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -3821,8 +3991,9 @@
       <c r="D165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -3835,8 +4006,9 @@
       <c r="D166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -3849,8 +4021,9 @@
       <c r="D167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -3863,8 +4036,9 @@
       <c r="D168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -3877,8 +4051,9 @@
       <c r="D169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -3891,8 +4066,9 @@
       <c r="D170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -3905,8 +4081,9 @@
       <c r="D171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -3919,8 +4096,9 @@
       <c r="D172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -3933,8 +4111,9 @@
       <c r="D173">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -3947,8 +4126,9 @@
       <c r="D174">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -3961,8 +4141,9 @@
       <c r="D175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3975,8 +4156,9 @@
       <c r="D176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3989,8 +4171,9 @@
       <c r="D177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -4003,8 +4186,9 @@
       <c r="D178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -4017,8 +4201,9 @@
       <c r="D179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -4031,8 +4216,9 @@
       <c r="D180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -4045,8 +4231,9 @@
       <c r="D181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -4059,8 +4246,9 @@
       <c r="D182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -4073,8 +4261,9 @@
       <c r="D183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -4087,8 +4276,9 @@
       <c r="D184">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -4101,8 +4291,9 @@
       <c r="D185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -4115,8 +4306,9 @@
       <c r="D186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4129,8 +4321,9 @@
       <c r="D187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4143,8 +4336,9 @@
       <c r="D188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4157,8 +4351,9 @@
       <c r="D189">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -4171,8 +4366,9 @@
       <c r="D190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4185,8 +4381,9 @@
       <c r="D191">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4199,8 +4396,9 @@
       <c r="D192">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4213,8 +4411,9 @@
       <c r="D193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -4227,8 +4426,9 @@
       <c r="D194">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4241,8 +4441,9 @@
       <c r="D195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -4255,8 +4456,9 @@
       <c r="D196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4269,8 +4471,9 @@
       <c r="D197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4283,8 +4486,9 @@
       <c r="D198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4297,8 +4501,9 @@
       <c r="D199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4311,8 +4516,9 @@
       <c r="D200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -4325,8 +4531,9 @@
       <c r="D201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4339,8 +4546,9 @@
       <c r="D202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4353,8 +4561,9 @@
       <c r="D203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4367,8 +4576,9 @@
       <c r="D204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4381,8 +4591,9 @@
       <c r="D205">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4395,8 +4606,9 @@
       <c r="D206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4409,8 +4621,9 @@
       <c r="D207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -4423,8 +4636,9 @@
       <c r="D208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4437,8 +4651,9 @@
       <c r="D209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4451,8 +4666,9 @@
       <c r="D210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4465,8 +4681,9 @@
       <c r="D211">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4479,8 +4696,9 @@
       <c r="D212">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4493,8 +4711,9 @@
       <c r="D213">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4507,8 +4726,9 @@
       <c r="D214">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4521,8 +4741,9 @@
       <c r="D215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4535,8 +4756,9 @@
       <c r="D216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4549,8 +4771,9 @@
       <c r="D217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4563,8 +4786,9 @@
       <c r="D218">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4577,8 +4801,9 @@
       <c r="D219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4591,8 +4816,9 @@
       <c r="D220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4605,8 +4831,9 @@
       <c r="D221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4619,8 +4846,9 @@
       <c r="D222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4633,8 +4861,9 @@
       <c r="D223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4647,8 +4876,310 @@
       <c r="D224">
         <v>0</v>
       </c>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>22.7</v>
+      </c>
+      <c r="C225">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>17.7</v>
+      </c>
+      <c r="C226">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>12.3</v>
+      </c>
+      <c r="C227">
+        <v>3.1</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>13.4</v>
+      </c>
+      <c r="C228">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>10.1</v>
+      </c>
+      <c r="C229">
+        <v>1.8</v>
+      </c>
+      <c r="D229">
+        <v>1.5</v>
+      </c>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>13.3</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>15.7</v>
+      </c>
+      <c r="C231">
+        <v>0.3</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>15.4</v>
+      </c>
+      <c r="C232">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D232">
+        <v>1.25</v>
+      </c>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>12.7</v>
+      </c>
+      <c r="C233">
+        <v>7.8</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>18.7</v>
+      </c>
+      <c r="C234">
+        <v>8.4</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C235">
+        <v>0.2</v>
+      </c>
+      <c r="D235">
+        <v>6.75</v>
+      </c>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>13.4</v>
+      </c>
+      <c r="C236">
+        <v>4.7</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>14.6</v>
+      </c>
+      <c r="C237">
+        <v>0.7</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>21</v>
+      </c>
+      <c r="C238">
+        <v>0.8</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>20.6</v>
+      </c>
+      <c r="C239">
+        <v>7.6</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>24.8</v>
+      </c>
+      <c r="C240">
+        <v>2.8</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>24.1</v>
+      </c>
+      <c r="C241">
+        <v>7</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>22.4</v>
+      </c>
+      <c r="C242">
+        <v>7.8</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>22.1</v>
+      </c>
+      <c r="C243">
+        <v>11.5</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>17.3</v>
+      </c>
+      <c r="C244">
+        <v>7.7</v>
+      </c>
+      <c r="D244">
+        <v>0.5</v>
+      </c>
+      <c r="F244" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>